--- a/municipal/განათლება/ზოგადსაგანმანათლებლო დაწესებულებები/კახეთი/ყვარელი.xlsx
+++ b/municipal/განათლება/ზოგადსაგანმანათლებლო დაწესებულებები/კახეთი/ყვარელი.xlsx
@@ -1,30 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სოციალური სტატისტიკა\ზოგადსაგანმანათლებლო დაწესებულებები\კახეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\სკოლები\ზოგადსაგანმანათლებლო დაწესებულებები\კახეთი\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F69097D-A9A2-4A62-B220-569F9BC57C24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="11865" yWindow="630" windowWidth="9255" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ყვარელი" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+  <si>
+    <t>საჯარო და კერძო ზოგადსაგანმანათლებლო დაწესებულებები ყვარლის მუნიციპალიტეტში</t>
+  </si>
+  <si>
+    <t>(სასწავლო წლის დასაწყისისთვის)</t>
+  </si>
+  <si>
+    <t>2010/2011*</t>
+  </si>
+  <si>
+    <t>2011/2012</t>
+  </si>
+  <si>
+    <t>2012/2013</t>
+  </si>
+  <si>
+    <t>2013/2014</t>
+  </si>
+  <si>
+    <t>2014/2015</t>
+  </si>
+  <si>
+    <t>2015/2016</t>
+  </si>
+  <si>
+    <t>2016/2017</t>
+  </si>
   <si>
     <t>2017/2018</t>
   </si>
@@ -39,6 +62,45 @@
   </si>
   <si>
     <t>2021/2022</t>
+  </si>
+  <si>
+    <t>2022/2023</t>
+  </si>
+  <si>
+    <t>2023/2024</t>
+  </si>
+  <si>
+    <t>სკოლების რაოდენობა (ერთეული)</t>
+  </si>
+  <si>
+    <t>მოსწავლეთა რიცხოვნობა (კაცი)</t>
+  </si>
+  <si>
+    <t>საშუალო სკოლის კურსდამთავრებულთა რიცხოვნობა</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    მათ შორის:   გოგო</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               ბიჭი</t>
+  </si>
+  <si>
+    <t>საშუალო სკოლის კურსდამთავრებულთა რიცხოვნობა 1000 მოსახლეზე;</t>
+  </si>
+  <si>
+    <t>პედაგოგების რიცხოვნობა (კაცი)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    მათ შორის:    ქალი</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               კაცი</t>
+  </si>
+  <si>
+    <t>* 2011 წლის 5 აპრილის მდგომარეობით.</t>
   </si>
   <si>
     <r>
@@ -48,7 +110,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Sylfaen"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>წყარო:</t>
     </r>
@@ -57,111 +119,76 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Sylfaen"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> საქართველოს განათლებისა და მეცნიერების სამინისტრო.
 </t>
     </r>
   </si>
-  <si>
-    <t>2010/2011*</t>
-  </si>
-  <si>
-    <t>2011/2012</t>
-  </si>
-  <si>
-    <t>2012/2013</t>
-  </si>
-  <si>
-    <t>2013/2014</t>
-  </si>
-  <si>
-    <t>2014/2015</t>
-  </si>
-  <si>
-    <t>2015/2016</t>
-  </si>
-  <si>
-    <t>2016/2017</t>
-  </si>
-  <si>
-    <t>─</t>
-  </si>
-  <si>
-    <t>* 2011 წლის 5 აპრილის მდგომარეობით.</t>
-  </si>
-  <si>
-    <t>საჯარო და კერძო ზოგადსაგანმანათლებლო დაწესებულებები ყვარლის მუნიციპალიტეტში</t>
-  </si>
-  <si>
-    <t>(სასწავლო წლის დასაწყისისთვის)</t>
-  </si>
-  <si>
-    <t>სკოლების რაოდენობა (ერთეული)</t>
-  </si>
-  <si>
-    <t>მოსწავლეთა რიცხოვნობა (კაცი)</t>
-  </si>
-  <si>
-    <t>პედაგოგების რიცხოვნობა (კაცი)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#\ ##0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="#\ ##0"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Sylfaen"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -169,13 +196,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -205,7 +226,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -213,10 +234,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -224,7 +245,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -233,77 +254,86 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,7 +394,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -399,7 +429,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -574,146 +604,113 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="5" customWidth="1"/>
-    <col min="3" max="13" width="13.140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="13" style="1" customWidth="1"/>
-    <col min="15" max="18" width="12" style="16" customWidth="1"/>
-    <col min="19" max="19" width="12" style="17" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="36.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="3" customWidth="1"/>
+    <col min="3" max="14" width="10.7109375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="5" customWidth="1"/>
+    <col min="16" max="19" width="12" style="5" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:19" ht="54" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-    </row>
-    <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+    </row>
+    <row r="4" spans="1:19" ht="21" customHeight="1">
+      <c r="A4" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-    </row>
-    <row r="3" spans="1:27" s="20" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-    </row>
-    <row r="4" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="B4" s="13">
         <v>23</v>
@@ -751,180 +748,427 @@
       <c r="M4" s="13">
         <v>22</v>
       </c>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-    </row>
-    <row r="5" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="N4" s="13">
+        <v>22</v>
+      </c>
+      <c r="O4" s="13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="21" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="15">
+        <v>4544</v>
+      </c>
+      <c r="C5" s="15">
+        <v>4090</v>
+      </c>
+      <c r="D5" s="15">
+        <v>3903</v>
+      </c>
+      <c r="E5" s="15">
+        <v>3799</v>
+      </c>
+      <c r="F5" s="15">
+        <v>3750</v>
+      </c>
+      <c r="G5" s="15">
+        <v>3611</v>
+      </c>
+      <c r="H5" s="15">
+        <v>3593</v>
+      </c>
+      <c r="I5" s="15">
+        <v>3566</v>
+      </c>
+      <c r="J5" s="15">
+        <v>3550</v>
+      </c>
+      <c r="K5" s="15">
+        <v>3645</v>
+      </c>
+      <c r="L5" s="15">
+        <v>3813</v>
+      </c>
+      <c r="M5" s="15">
+        <v>3902</v>
+      </c>
+      <c r="N5" s="15">
+        <v>3936</v>
+      </c>
+      <c r="O5" s="27">
+        <v>3963</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="30">
+      <c r="A6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="14">
-        <v>4544</v>
-      </c>
-      <c r="C5" s="14">
-        <v>4090</v>
-      </c>
-      <c r="D5" s="14">
-        <v>3903</v>
-      </c>
-      <c r="E5" s="14">
-        <v>3799</v>
-      </c>
-      <c r="F5" s="14">
-        <v>3750</v>
-      </c>
-      <c r="G5" s="14">
-        <v>3611</v>
-      </c>
-      <c r="H5" s="14">
-        <v>3593</v>
-      </c>
-      <c r="I5" s="14">
-        <v>3566</v>
-      </c>
-      <c r="J5" s="14">
-        <v>3550</v>
-      </c>
-      <c r="K5" s="14">
-        <v>3645</v>
-      </c>
-      <c r="L5" s="14">
-        <v>3813</v>
-      </c>
-      <c r="M5" s="14">
-        <v>3902</v>
-      </c>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-    </row>
-    <row r="6" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="15">
+      <c r="B6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="18">
+        <v>311</v>
+      </c>
+      <c r="D6" s="18">
+        <v>299</v>
+      </c>
+      <c r="E6" s="18">
+        <v>269</v>
+      </c>
+      <c r="F6" s="18">
+        <v>305</v>
+      </c>
+      <c r="G6" s="18">
+        <v>275</v>
+      </c>
+      <c r="H6" s="18">
+        <v>260</v>
+      </c>
+      <c r="I6" s="18">
+        <v>248</v>
+      </c>
+      <c r="J6" s="18">
+        <v>227</v>
+      </c>
+      <c r="K6" s="18">
+        <v>199</v>
+      </c>
+      <c r="L6" s="18">
+        <v>238</v>
+      </c>
+      <c r="M6" s="18">
+        <v>265</v>
+      </c>
+      <c r="N6" s="18">
+        <v>283</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="21" customHeight="1">
+      <c r="A7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="15">
+        <v>166</v>
+      </c>
+      <c r="D7" s="15">
+        <v>145</v>
+      </c>
+      <c r="E7" s="15">
+        <v>142</v>
+      </c>
+      <c r="F7" s="15">
+        <v>137</v>
+      </c>
+      <c r="G7" s="15">
+        <v>140</v>
+      </c>
+      <c r="H7" s="15">
+        <v>118</v>
+      </c>
+      <c r="I7" s="15">
+        <v>124</v>
+      </c>
+      <c r="J7" s="15">
+        <v>118</v>
+      </c>
+      <c r="K7" s="15">
+        <v>83</v>
+      </c>
+      <c r="L7" s="15">
+        <v>116</v>
+      </c>
+      <c r="M7" s="15">
+        <v>118</v>
+      </c>
+      <c r="N7" s="15">
+        <v>116</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="21" customHeight="1">
+      <c r="A8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="15">
+        <v>145</v>
+      </c>
+      <c r="D8" s="15">
+        <v>154</v>
+      </c>
+      <c r="E8" s="15">
+        <v>127</v>
+      </c>
+      <c r="F8" s="15">
+        <v>168</v>
+      </c>
+      <c r="G8" s="15">
+        <v>135</v>
+      </c>
+      <c r="H8" s="15">
+        <v>142</v>
+      </c>
+      <c r="I8" s="15">
+        <v>124</v>
+      </c>
+      <c r="J8" s="15">
+        <v>109</v>
+      </c>
+      <c r="K8" s="15">
+        <v>116</v>
+      </c>
+      <c r="L8" s="15">
+        <v>122</v>
+      </c>
+      <c r="M8" s="15">
+        <v>147</v>
+      </c>
+      <c r="N8" s="15">
+        <v>167</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="27" customHeight="1">
+      <c r="A9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="30">
+        <v>10.174204629099499</v>
+      </c>
+      <c r="D9" s="30">
+        <v>9.8601767576836803</v>
+      </c>
+      <c r="E9" s="30">
+        <v>8.93390900033212</v>
+      </c>
+      <c r="F9" s="30">
+        <v>10.1729399796541</v>
+      </c>
+      <c r="G9" s="30">
+        <v>9.1789052069425896</v>
+      </c>
+      <c r="H9" s="30">
+        <v>8.6510946962134803</v>
+      </c>
+      <c r="I9" s="30">
+        <v>8.2249933669408293</v>
+      </c>
+      <c r="J9" s="30">
+        <v>7.5104633658125</v>
+      </c>
+      <c r="K9" s="30">
+        <v>6.5671149245111797</v>
+      </c>
+      <c r="L9" s="30">
+        <v>7.8485687903970396</v>
+      </c>
+      <c r="M9" s="30">
+        <v>8.7206910736322492</v>
+      </c>
+      <c r="N9" s="30">
+        <v>9.2550199489829303</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="21" customHeight="1">
+      <c r="A10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="15">
         <v>693</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I10" s="15">
         <v>690</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J10" s="15">
         <v>664</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K10" s="15">
         <v>588</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L10" s="15">
         <v>557</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M10" s="15">
         <v>558</v>
       </c>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-    </row>
-    <row r="8" spans="1:27" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
+      <c r="N10" s="15">
+        <v>559</v>
+      </c>
+      <c r="O10" s="19">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="21" customHeight="1">
+      <c r="A11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="15">
+        <v>628</v>
+      </c>
+      <c r="I11" s="15">
+        <v>629</v>
+      </c>
+      <c r="J11" s="15">
+        <v>607</v>
+      </c>
+      <c r="K11" s="15">
+        <v>534</v>
+      </c>
+      <c r="L11" s="15">
+        <v>517</v>
+      </c>
+      <c r="M11" s="15">
+        <v>518</v>
+      </c>
+      <c r="N11" s="15">
+        <v>522</v>
+      </c>
+      <c r="O11" s="19">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="21" customHeight="1">
+      <c r="A12" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="23">
+        <v>65</v>
+      </c>
+      <c r="I12" s="23">
+        <v>61</v>
+      </c>
+      <c r="J12" s="23">
+        <v>57</v>
+      </c>
+      <c r="K12" s="23">
+        <v>54</v>
+      </c>
+      <c r="L12" s="23">
+        <v>40</v>
+      </c>
+      <c r="M12" s="23">
+        <v>40</v>
+      </c>
+      <c r="N12" s="23">
+        <v>37</v>
+      </c>
+      <c r="O12" s="22">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:19" s="2" customFormat="1">
+      <c r="A14" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="24"/>
+      <c r="N14" s="24"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A1:M1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/municipal/განათლება/ზოგადსაგანმანათლებლო დაწესებულებები/კახეთი/ყვარელი.xlsx
+++ b/municipal/განათლება/ზოგადსაგანმანათლებლო დაწესებულებები/კახეთი/ყვარელი.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\სკოლები\ზოგადსაგანმანათლებლო დაწესებულებები\კახეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სკოლები\ზოგადსაგანმანათლებლო დაწესებულებები\კახეთი\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F69097D-A9A2-4A62-B220-569F9BC57C24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C89355-A808-46C0-90BC-80C0F871DCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11865" yWindow="630" windowWidth="9255" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ყვარელი" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
   <si>
     <t>საჯარო და კერძო ზოგადსაგანმანათლებლო დაწესებულებები ყვარლის მუნიციპალიტეტში</t>
   </si>
@@ -110,7 +110,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Sylfaen"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>წყარო:</t>
     </r>
@@ -119,11 +119,17 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Sylfaen"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> საქართველოს განათლებისა და მეცნიერების სამინისტრო.
 </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> დაწყებითი საფეხურის კურსდამთავრებულთა რიცხოვნობა</t>
+  </si>
+  <si>
+    <t>საბაზო საფეხურის კურსდამთავრებულთა რიცხოვნობა</t>
   </si>
 </sst>
 </file>
@@ -131,10 +137,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="#\ ##0"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="#\ ##0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,49 +152,49 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -196,10 +202,18 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,6 +224,24 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0" tint="-0.14996795556505021"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -254,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -279,40 +311,34 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -325,7 +351,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -333,7 +364,10 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,7 +643,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,11 +653,11 @@
     <col min="2" max="2" width="10.7109375" style="3" customWidth="1"/>
     <col min="3" max="14" width="10.7109375" style="4" customWidth="1"/>
     <col min="15" max="15" width="10.7109375" style="5" customWidth="1"/>
-    <col min="16" max="19" width="12" style="5" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="5"/>
+    <col min="16" max="29" width="5.7109375" style="5" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="54" customHeight="1">
+    <row r="1" spans="1:27" ht="54" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -640,7 +674,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:27" ht="15" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -656,14 +690,10 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+    </row>
+    <row r="3" spans="1:27" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A3" s="9"/>
       <c r="B3" s="10" t="s">
         <v>2</v>
@@ -692,23 +722,23 @@
       <c r="J3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="26" t="s">
+      <c r="O3" s="24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="21" customHeight="1">
+    <row r="4" spans="1:27" ht="21" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>16</v>
       </c>
@@ -755,7 +785,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="21" customHeight="1">
+    <row r="5" spans="1:27" ht="21" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>17</v>
       </c>
@@ -798,377 +828,675 @@
       <c r="N5" s="15">
         <v>3936</v>
       </c>
-      <c r="O5" s="27">
+      <c r="O5" s="15">
         <v>3963</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="30">
+    <row r="6" spans="1:27" ht="30">
       <c r="A6" s="16" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="31">
+        <v>345</v>
+      </c>
+      <c r="D6" s="32">
+        <v>290</v>
+      </c>
+      <c r="E6" s="33">
+        <v>282</v>
+      </c>
+      <c r="F6" s="33">
+        <v>304</v>
+      </c>
+      <c r="G6" s="32">
+        <v>301</v>
+      </c>
+      <c r="H6" s="31">
         <v>311</v>
       </c>
-      <c r="D6" s="18">
-        <v>299</v>
-      </c>
-      <c r="E6" s="18">
-        <v>269</v>
-      </c>
-      <c r="F6" s="18">
-        <v>305</v>
-      </c>
-      <c r="G6" s="18">
-        <v>275</v>
-      </c>
-      <c r="H6" s="18">
-        <v>260</v>
-      </c>
-      <c r="I6" s="18">
-        <v>248</v>
-      </c>
-      <c r="J6" s="18">
-        <v>227</v>
-      </c>
-      <c r="K6" s="18">
-        <v>199</v>
-      </c>
-      <c r="L6" s="18">
-        <v>238</v>
-      </c>
-      <c r="M6" s="18">
-        <v>265</v>
-      </c>
-      <c r="N6" s="18">
-        <v>283</v>
+      <c r="I6" s="31">
+        <v>274</v>
+      </c>
+      <c r="J6" s="33">
+        <v>314</v>
+      </c>
+      <c r="K6" s="33">
+        <v>313</v>
+      </c>
+      <c r="L6" s="32">
+        <v>263</v>
+      </c>
+      <c r="M6" s="32">
+        <v>370</v>
+      </c>
+      <c r="N6" s="15">
+        <f>N7+N8</f>
+        <v>307</v>
       </c>
       <c r="O6" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="21" customHeight="1">
+    <row r="7" spans="1:27" ht="15.75">
       <c r="A7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="15">
-        <v>166</v>
-      </c>
-      <c r="D7" s="15">
-        <v>145</v>
-      </c>
-      <c r="E7" s="15">
-        <v>142</v>
-      </c>
-      <c r="F7" s="15">
-        <v>137</v>
-      </c>
-      <c r="G7" s="15">
-        <v>140</v>
-      </c>
-      <c r="H7" s="15">
+      <c r="B7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="31">
+        <v>168</v>
+      </c>
+      <c r="D7" s="31">
+        <v>144</v>
+      </c>
+      <c r="E7" s="31">
         <v>118</v>
       </c>
-      <c r="I7" s="15">
-        <v>124</v>
-      </c>
-      <c r="J7" s="15">
-        <v>118</v>
-      </c>
-      <c r="K7" s="15">
-        <v>83</v>
-      </c>
-      <c r="L7" s="15">
-        <v>116</v>
-      </c>
-      <c r="M7" s="15">
-        <v>118</v>
+      <c r="F7" s="31">
+        <v>143</v>
+      </c>
+      <c r="G7" s="31">
+        <v>133</v>
+      </c>
+      <c r="H7" s="31">
+        <v>136</v>
+      </c>
+      <c r="I7" s="31">
+        <v>135</v>
+      </c>
+      <c r="J7" s="31">
+        <v>157</v>
+      </c>
+      <c r="K7" s="31">
+        <v>144</v>
+      </c>
+      <c r="L7" s="31">
+        <v>131</v>
+      </c>
+      <c r="M7" s="31">
+        <v>178</v>
       </c>
       <c r="N7" s="15">
-        <v>116</v>
-      </c>
-      <c r="O7" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="21" customHeight="1">
+        <v>155</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="15.75">
       <c r="A8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="15">
+      <c r="B8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="31">
+        <v>177</v>
+      </c>
+      <c r="D8" s="31">
+        <v>146</v>
+      </c>
+      <c r="E8" s="31">
+        <v>164</v>
+      </c>
+      <c r="F8" s="31">
+        <v>161</v>
+      </c>
+      <c r="G8" s="31">
+        <v>168</v>
+      </c>
+      <c r="H8" s="31">
+        <v>175</v>
+      </c>
+      <c r="I8" s="31">
+        <v>139</v>
+      </c>
+      <c r="J8" s="31">
+        <v>157</v>
+      </c>
+      <c r="K8" s="31">
+        <v>169</v>
+      </c>
+      <c r="L8" s="31">
+        <v>132</v>
+      </c>
+      <c r="M8" s="31">
+        <v>192</v>
+      </c>
+      <c r="N8" s="15">
+        <v>152</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA8" s="25"/>
+    </row>
+    <row r="9" spans="1:27" ht="30">
+      <c r="A9" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="31">
+        <v>447</v>
+      </c>
+      <c r="D9" s="32">
+        <v>372</v>
+      </c>
+      <c r="E9" s="33">
+        <v>354</v>
+      </c>
+      <c r="F9" s="31">
+        <v>351</v>
+      </c>
+      <c r="G9" s="33">
+        <v>314</v>
+      </c>
+      <c r="H9" s="31">
+        <v>273</v>
+      </c>
+      <c r="I9" s="31">
+        <v>296</v>
+      </c>
+      <c r="J9" s="32">
+        <v>289</v>
+      </c>
+      <c r="K9" s="33">
+        <v>314</v>
+      </c>
+      <c r="L9" s="32">
+        <v>266</v>
+      </c>
+      <c r="M9" s="32">
+        <v>300</v>
+      </c>
+      <c r="N9" s="15">
+        <f>N10+N11</f>
+        <v>308</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA9" s="25"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75">
+      <c r="A10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="31">
+        <v>194</v>
+      </c>
+      <c r="D10" s="31">
+        <v>173</v>
+      </c>
+      <c r="E10" s="31">
+        <v>153</v>
+      </c>
+      <c r="F10" s="31">
+        <v>168</v>
+      </c>
+      <c r="G10" s="31">
+        <v>149</v>
+      </c>
+      <c r="H10" s="31">
+        <v>113</v>
+      </c>
+      <c r="I10" s="31">
+        <v>137</v>
+      </c>
+      <c r="J10" s="31">
+        <v>129</v>
+      </c>
+      <c r="K10" s="31">
+        <v>134</v>
+      </c>
+      <c r="L10" s="31">
+        <v>130</v>
+      </c>
+      <c r="M10" s="31">
+        <v>152</v>
+      </c>
+      <c r="N10" s="15">
         <v>145</v>
       </c>
-      <c r="D8" s="15">
-        <v>154</v>
-      </c>
-      <c r="E8" s="15">
+      <c r="O10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="28"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.75">
+      <c r="A11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="31">
+        <v>253</v>
+      </c>
+      <c r="D11" s="31">
+        <v>199</v>
+      </c>
+      <c r="E11" s="31">
+        <v>201</v>
+      </c>
+      <c r="F11" s="31">
+        <v>183</v>
+      </c>
+      <c r="G11" s="31">
+        <v>165</v>
+      </c>
+      <c r="H11" s="31">
+        <v>160</v>
+      </c>
+      <c r="I11" s="31">
+        <v>159</v>
+      </c>
+      <c r="J11" s="31">
+        <v>160</v>
+      </c>
+      <c r="K11" s="31">
+        <v>180</v>
+      </c>
+      <c r="L11" s="31">
+        <v>136</v>
+      </c>
+      <c r="M11" s="31">
+        <v>148</v>
+      </c>
+      <c r="N11" s="15">
+        <v>163</v>
+      </c>
+      <c r="O11" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="30">
+      <c r="A12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="31">
+        <v>311</v>
+      </c>
+      <c r="D12" s="32">
+        <v>338</v>
+      </c>
+      <c r="E12" s="33">
+        <v>267</v>
+      </c>
+      <c r="F12" s="33">
+        <v>303</v>
+      </c>
+      <c r="G12" s="32">
+        <v>274</v>
+      </c>
+      <c r="H12" s="31">
+        <v>258</v>
+      </c>
+      <c r="I12" s="31">
+        <v>248</v>
+      </c>
+      <c r="J12" s="33">
+        <v>227</v>
+      </c>
+      <c r="K12" s="33">
+        <v>170</v>
+      </c>
+      <c r="L12" s="32">
+        <v>238</v>
+      </c>
+      <c r="M12" s="32">
+        <v>265</v>
+      </c>
+      <c r="N12" s="15">
+        <v>283</v>
+      </c>
+      <c r="O12" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="21" customHeight="1">
+      <c r="A13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="31">
+        <v>166</v>
+      </c>
+      <c r="D13" s="31">
+        <v>167</v>
+      </c>
+      <c r="E13" s="31">
+        <v>140</v>
+      </c>
+      <c r="F13" s="31">
+        <v>135</v>
+      </c>
+      <c r="G13" s="31">
+        <v>139</v>
+      </c>
+      <c r="H13" s="31">
+        <v>118</v>
+      </c>
+      <c r="I13" s="31">
+        <v>124</v>
+      </c>
+      <c r="J13" s="31">
+        <v>118</v>
+      </c>
+      <c r="K13" s="31">
+        <v>71</v>
+      </c>
+      <c r="L13" s="31">
+        <v>116</v>
+      </c>
+      <c r="M13" s="31">
+        <v>118</v>
+      </c>
+      <c r="N13" s="15">
+        <v>116</v>
+      </c>
+      <c r="O13" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="21" customHeight="1">
+      <c r="A14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="31">
+        <v>145</v>
+      </c>
+      <c r="D14" s="31">
+        <v>171</v>
+      </c>
+      <c r="E14" s="31">
         <v>127</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F14" s="31">
         <v>168</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G14" s="31">
         <v>135</v>
       </c>
-      <c r="H8" s="15">
-        <v>142</v>
-      </c>
-      <c r="I8" s="15">
+      <c r="H14" s="31">
+        <v>140</v>
+      </c>
+      <c r="I14" s="31">
         <v>124</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J14" s="31">
         <v>109</v>
       </c>
-      <c r="K8" s="15">
-        <v>116</v>
-      </c>
-      <c r="L8" s="15">
+      <c r="K14" s="31">
+        <v>99</v>
+      </c>
+      <c r="L14" s="31">
         <v>122</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M14" s="31">
         <v>147</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N14" s="15">
         <v>167</v>
       </c>
-      <c r="O8" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="27" customHeight="1">
-      <c r="A9" s="20" t="s">
+      <c r="O14" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="27" customHeight="1">
+      <c r="A15" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="30">
-        <v>10.174204629099499</v>
-      </c>
-      <c r="D9" s="30">
-        <v>9.8601767576836803</v>
-      </c>
-      <c r="E9" s="30">
-        <v>8.93390900033212</v>
-      </c>
-      <c r="F9" s="30">
-        <v>10.1729399796541</v>
-      </c>
-      <c r="G9" s="30">
-        <v>9.1789052069425896</v>
-      </c>
-      <c r="H9" s="30">
-        <v>8.6510946962134803</v>
-      </c>
-      <c r="I9" s="30">
-        <v>8.2249933669408293</v>
-      </c>
-      <c r="J9" s="30">
-        <v>7.5104633658125</v>
-      </c>
-      <c r="K9" s="30">
-        <v>6.5671149245111797</v>
-      </c>
-      <c r="L9" s="30">
-        <v>7.8485687903970396</v>
-      </c>
-      <c r="M9" s="30">
-        <v>8.7206910736322492</v>
-      </c>
-      <c r="N9" s="30">
-        <v>9.2550199489829303</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="21" customHeight="1">
-      <c r="A10" s="14" t="s">
+      <c r="B15" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="34">
+        <v>10.255902915182695</v>
+      </c>
+      <c r="D15" s="34">
+        <v>11.225506476253736</v>
+      </c>
+      <c r="E15" s="34">
+        <v>8.9054917198939343</v>
+      </c>
+      <c r="F15" s="34">
+        <v>10.113484646194927</v>
+      </c>
+      <c r="G15" s="34">
+        <v>9.116922872163439</v>
+      </c>
+      <c r="H15" s="34">
+        <v>8.5566463252852216</v>
+      </c>
+      <c r="I15" s="34">
+        <v>8.2052639415044091</v>
+      </c>
+      <c r="J15" s="34">
+        <v>7.4911310947941594</v>
+      </c>
+      <c r="K15" s="34">
+        <v>5.6061205645693182</v>
+      </c>
+      <c r="L15" s="34">
+        <v>7.8321678321678325</v>
+      </c>
+      <c r="M15" s="34">
+        <v>8.7231311103064613</v>
+      </c>
+      <c r="N15" s="34">
+        <v>9.2550199489829286</v>
+      </c>
+      <c r="O15" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="21" customHeight="1">
+      <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="15">
+      <c r="B16" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="15">
         <v>693</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I16" s="15">
         <v>690</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J16" s="15">
         <v>664</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K16" s="15">
         <v>588</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L16" s="15">
         <v>557</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M16" s="15">
         <v>558</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N16" s="15">
         <v>559</v>
       </c>
-      <c r="O10" s="19">
+      <c r="O16" s="17">
         <v>567</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="21" customHeight="1">
-      <c r="A11" s="14" t="s">
+    <row r="17" spans="1:15" ht="21" customHeight="1">
+      <c r="A17" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="15">
+      <c r="B17" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="15">
         <v>628</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I17" s="15">
         <v>629</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J17" s="15">
         <v>607</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K17" s="15">
         <v>534</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L17" s="15">
         <v>517</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M17" s="15">
         <v>518</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N17" s="15">
         <v>522</v>
       </c>
-      <c r="O11" s="19">
+      <c r="O17" s="17">
         <v>531</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="21" customHeight="1">
-      <c r="A12" s="21" t="s">
+    <row r="18" spans="1:15" ht="21" customHeight="1">
+      <c r="A18" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="23">
+      <c r="B18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="21">
         <v>65</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I18" s="21">
         <v>61</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J18" s="21">
         <v>57</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K18" s="21">
         <v>54</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L18" s="21">
         <v>40</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M18" s="21">
         <v>40</v>
       </c>
-      <c r="N12" s="23">
+      <c r="N18" s="21">
         <v>37</v>
       </c>
-      <c r="O12" s="22">
+      <c r="O18" s="20">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="28" t="s">
+    <row r="19" spans="1:15">
+      <c r="A19" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:19" s="2" customFormat="1">
-      <c r="A14" s="29" t="s">
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="1:15" s="2" customFormat="1">
+      <c r="A20" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="24"/>
-      <c r="N14" s="24"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="22"/>
+      <c r="N20" s="22"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
